--- a/Arquivos/Usuarios.xlsx
+++ b/Arquivos/Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02776BDC-3A4A-40DD-B43B-FC614B9FEFD1}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F37AF1-966F-439F-8575-76F0034629AE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1911,7 @@
         <v>62</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D104" si="1">SUM(B67:C67)</f>
+        <f t="shared" ref="D67:D118" si="1">SUM(B67:C67)</f>
         <v>130</v>
       </c>
     </row>
@@ -2469,6 +2469,243 @@
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B105">
+        <v>90</v>
+      </c>
+      <c r="C105">
+        <v>55</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B106">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>77</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B107">
+        <v>117</v>
+      </c>
+      <c r="C107">
+        <v>72</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B108">
+        <v>99</v>
+      </c>
+      <c r="C108">
+        <v>57</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="C109">
+        <v>54</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B110">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B111">
+        <v>85</v>
+      </c>
+      <c r="C111">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B112">
+        <v>51</v>
+      </c>
+      <c r="C112">
+        <v>41</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+      <c r="C113">
+        <v>34</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B114">
+        <v>60</v>
+      </c>
+      <c r="C114">
+        <v>55</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B115">
+        <v>78</v>
+      </c>
+      <c r="C115">
+        <v>61</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B116">
+        <v>59</v>
+      </c>
+      <c r="C116">
+        <v>38</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B117">
+        <v>63</v>
+      </c>
+      <c r="C117">
+        <v>62</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B118">
+        <v>59</v>
+      </c>
+      <c r="C118">
+        <v>53</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Arquivos/Usuarios.xlsx
+++ b/Arquivos/Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F37AF1-966F-439F-8575-76F0034629AE}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A68B609-45A5-4561-A34A-83E70319FE73}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:D118"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1911,7 @@
         <v>62</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D118" si="1">SUM(B67:C67)</f>
+        <f t="shared" ref="D67:D125" si="1">SUM(B67:C67)</f>
         <v>130</v>
       </c>
     </row>
@@ -2681,25 +2681,109 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
+      <c r="A119" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B119">
+        <v>58</v>
+      </c>
+      <c r="C119">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
+      <c r="A120" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B120">
+        <v>53</v>
+      </c>
+      <c r="C120">
+        <v>52</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
+      <c r="A121" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B121">
+        <v>79</v>
+      </c>
+      <c r="C121">
+        <v>71</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
+      <c r="A122" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B122">
+        <v>68</v>
+      </c>
+      <c r="C122">
+        <v>62</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
+      <c r="A123" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B123">
+        <v>65</v>
+      </c>
+      <c r="C123">
+        <v>48</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
+      <c r="A124" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B124">
+        <v>44</v>
+      </c>
+      <c r="C124">
+        <v>41</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
+      <c r="A125" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B125">
+        <v>64</v>
+      </c>
+      <c r="C125">
+        <v>49</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>

--- a/Arquivos/Usuarios.xlsx
+++ b/Arquivos/Usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A68B609-45A5-4561-A34A-83E70319FE73}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8E4986-2304-4C9D-A317-DB1257F01EFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -641,7 +641,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -747,7 +747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -889,7 +889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -897,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217:D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1911,7 @@
         <v>62</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D125" si="1">SUM(B67:C67)</f>
+        <f t="shared" ref="D67:D130" si="1">SUM(B67:C67)</f>
         <v>130</v>
       </c>
     </row>
@@ -2786,10 +2786,1474 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
+      <c r="A126" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B126">
+        <v>88</v>
+      </c>
+      <c r="C126">
+        <v>55</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
+      <c r="A127" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B127">
+        <v>118</v>
+      </c>
+      <c r="C127">
+        <v>65</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B128">
+        <v>99</v>
+      </c>
+      <c r="C128">
+        <v>56</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B129">
+        <v>106</v>
+      </c>
+      <c r="C129">
+        <v>63</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B130">
+        <v>95</v>
+      </c>
+      <c r="C130">
+        <v>55</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B131">
+        <v>128</v>
+      </c>
+      <c r="C131">
+        <v>103</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">SUM(B131:C131)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B132">
+        <v>208</v>
+      </c>
+      <c r="C132">
+        <v>158</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B133">
+        <v>97</v>
+      </c>
+      <c r="C133">
+        <v>45</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B134">
+        <v>68</v>
+      </c>
+      <c r="C134">
+        <v>32</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B135">
+        <v>44</v>
+      </c>
+      <c r="C135">
+        <v>45</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B136">
+        <v>51</v>
+      </c>
+      <c r="C136">
+        <v>34</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B137">
+        <v>69</v>
+      </c>
+      <c r="C137">
+        <v>52</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B138">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B139">
+        <v>54</v>
+      </c>
+      <c r="C139">
+        <v>37</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B140">
+        <v>116</v>
+      </c>
+      <c r="C140">
+        <v>40</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B141">
+        <v>87</v>
+      </c>
+      <c r="C141">
+        <v>51</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B142">
+        <v>55</v>
+      </c>
+      <c r="C142">
+        <v>44</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B143">
+        <v>74</v>
+      </c>
+      <c r="C143">
+        <v>39</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B144">
+        <v>251</v>
+      </c>
+      <c r="C144">
+        <v>37</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B145">
+        <v>63</v>
+      </c>
+      <c r="C145">
+        <v>30</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B146">
+        <v>48</v>
+      </c>
+      <c r="C146">
+        <v>22</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B147">
+        <v>54</v>
+      </c>
+      <c r="C147">
+        <v>30</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B148">
+        <v>53</v>
+      </c>
+      <c r="C148">
+        <v>30</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B149">
+        <v>48</v>
+      </c>
+      <c r="C149">
+        <v>29</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B150">
+        <v>56</v>
+      </c>
+      <c r="C150">
+        <v>29</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B151">
+        <v>46</v>
+      </c>
+      <c r="C151">
+        <v>24</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B152">
+        <v>39</v>
+      </c>
+      <c r="C152">
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B153">
+        <v>47</v>
+      </c>
+      <c r="C153">
+        <v>22</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B154">
+        <v>60</v>
+      </c>
+      <c r="C154">
+        <v>40</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B155">
+        <v>83</v>
+      </c>
+      <c r="C155">
+        <v>54</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B156">
+        <v>91</v>
+      </c>
+      <c r="C156">
+        <v>69</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B157">
+        <v>115</v>
+      </c>
+      <c r="C157">
+        <v>79</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B158">
+        <v>75</v>
+      </c>
+      <c r="C158">
+        <v>48</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B159">
+        <v>85</v>
+      </c>
+      <c r="C159">
+        <v>56</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B160">
+        <v>82</v>
+      </c>
+      <c r="C160">
+        <v>52</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B161">
+        <v>200</v>
+      </c>
+      <c r="C161">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B162">
+        <v>97</v>
+      </c>
+      <c r="C162">
+        <v>39</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B163">
+        <v>61</v>
+      </c>
+      <c r="C163">
+        <v>36</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B164">
+        <v>65</v>
+      </c>
+      <c r="C164">
+        <v>42</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B165">
+        <v>47</v>
+      </c>
+      <c r="C165">
+        <v>41</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B166">
+        <v>56</v>
+      </c>
+      <c r="C166">
+        <v>39</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B167">
+        <v>42</v>
+      </c>
+      <c r="C167">
+        <v>34</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B168">
+        <v>43</v>
+      </c>
+      <c r="C168">
+        <v>27</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B169">
+        <v>54</v>
+      </c>
+      <c r="C169">
+        <v>46</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B170">
+        <v>56</v>
+      </c>
+      <c r="C170">
+        <v>42</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B171">
+        <v>77</v>
+      </c>
+      <c r="C171">
+        <v>51</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B172">
+        <v>47</v>
+      </c>
+      <c r="C172">
+        <v>43</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B173">
+        <v>72</v>
+      </c>
+      <c r="C173">
+        <v>44</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B174">
+        <v>133</v>
+      </c>
+      <c r="C174">
+        <v>57</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B175">
+        <v>41</v>
+      </c>
+      <c r="C175">
+        <v>35</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B176">
+        <v>47</v>
+      </c>
+      <c r="C176">
+        <v>31</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B177">
+        <v>60</v>
+      </c>
+      <c r="C177">
+        <v>41</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B178">
+        <v>55</v>
+      </c>
+      <c r="C178">
+        <v>49</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B179">
+        <v>35</v>
+      </c>
+      <c r="C179">
+        <v>50</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B180">
+        <v>46</v>
+      </c>
+      <c r="C180">
+        <v>27</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B181">
+        <v>17</v>
+      </c>
+      <c r="C181">
+        <v>19</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B182">
+        <v>16</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B183">
+        <v>50</v>
+      </c>
+      <c r="C183">
+        <v>35</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B184">
+        <v>38</v>
+      </c>
+      <c r="C184">
+        <v>42</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B185">
+        <v>80</v>
+      </c>
+      <c r="C185">
+        <v>55</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B186">
+        <v>60</v>
+      </c>
+      <c r="C186">
+        <v>60</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B187">
+        <v>37</v>
+      </c>
+      <c r="C187">
+        <v>39</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B188">
+        <v>62</v>
+      </c>
+      <c r="C188">
+        <v>51</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B189">
+        <v>41</v>
+      </c>
+      <c r="C189">
+        <v>36</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B190">
+        <v>35</v>
+      </c>
+      <c r="C190">
+        <v>51</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B191">
+        <v>48</v>
+      </c>
+      <c r="C191">
+        <v>49</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B192">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>42</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B193">
+        <v>38</v>
+      </c>
+      <c r="C193">
+        <v>58</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B194">
+        <v>30</v>
+      </c>
+      <c r="C194">
+        <v>35</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B195">
+        <v>20</v>
+      </c>
+      <c r="C195">
+        <v>28</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D223" si="3">SUM(B195:C195)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B196">
+        <v>43</v>
+      </c>
+      <c r="C196">
+        <v>19</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B197">
+        <v>62</v>
+      </c>
+      <c r="C197">
+        <v>30</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B198">
+        <v>106</v>
+      </c>
+      <c r="C198">
+        <v>63</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B199">
+        <v>85</v>
+      </c>
+      <c r="C199">
+        <v>47</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B200">
+        <v>80</v>
+      </c>
+      <c r="C200">
+        <v>49</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B201">
+        <v>100</v>
+      </c>
+      <c r="C201">
+        <v>63</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B202">
+        <v>76</v>
+      </c>
+      <c r="C202">
+        <v>45</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B203">
+        <v>77</v>
+      </c>
+      <c r="C203">
+        <v>39</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B204">
+        <v>93</v>
+      </c>
+      <c r="C204">
+        <v>65</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B205">
+        <v>99</v>
+      </c>
+      <c r="C205">
+        <v>66</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B206">
+        <v>128</v>
+      </c>
+      <c r="C206">
+        <v>88</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B207">
+        <v>401</v>
+      </c>
+      <c r="C207">
+        <v>358</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B208">
+        <v>88</v>
+      </c>
+      <c r="C208">
+        <v>49</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B209">
+        <v>99</v>
+      </c>
+      <c r="C209">
+        <v>57</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B210">
+        <v>36</v>
+      </c>
+      <c r="C210">
+        <v>35</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B211">
+        <v>44</v>
+      </c>
+      <c r="C211">
+        <v>35</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B212">
+        <v>70</v>
+      </c>
+      <c r="C212">
+        <v>40</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B213">
+        <v>122</v>
+      </c>
+      <c r="C213">
+        <v>51</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B214">
+        <v>75</v>
+      </c>
+      <c r="C214">
+        <v>66</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B215">
+        <v>109</v>
+      </c>
+      <c r="C215">
+        <v>56</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>45354</v>
+      </c>
+      <c r="B216">
+        <v>103</v>
+      </c>
+      <c r="C216">
+        <v>52</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B217">
+        <v>54</v>
+      </c>
+      <c r="C217">
+        <v>53</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B218">
+        <v>46</v>
+      </c>
+      <c r="C218">
+        <v>29</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B219">
+        <v>51</v>
+      </c>
+      <c r="C219">
+        <v>36</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B220">
+        <v>56</v>
+      </c>
+      <c r="C220">
+        <v>41</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B221">
+        <v>37</v>
+      </c>
+      <c r="C221">
+        <v>33</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B222">
+        <v>89</v>
+      </c>
+      <c r="C222">
+        <v>41</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>45361</v>
+      </c>
+      <c r="B223">
+        <v>38</v>
+      </c>
+      <c r="C223">
+        <v>34</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Arquivos/Usuarios.xlsx
+++ b/Arquivos/Usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8E4986-2304-4C9D-A317-DB1257F01EFC}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C676BEFC-3E5F-42B8-9452-31E203BC598F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217:D223"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259:D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3831,7 +3831,7 @@
         <v>28</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D223" si="3">SUM(B195:C195)</f>
+        <f t="shared" ref="D195:D259" si="3">SUM(B195:C195)</f>
         <v>48</v>
       </c>
     </row>
@@ -4253,6 +4253,636 @@
       <c r="D223">
         <f t="shared" si="3"/>
         <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B224">
+        <v>42</v>
+      </c>
+      <c r="C224">
+        <v>30</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B225">
+        <v>34</v>
+      </c>
+      <c r="C225">
+        <v>28</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B226">
+        <v>41</v>
+      </c>
+      <c r="C226">
+        <v>29</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B227">
+        <v>52</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B228">
+        <v>39</v>
+      </c>
+      <c r="C228">
+        <v>34</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B229">
+        <v>51</v>
+      </c>
+      <c r="C229">
+        <v>24</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B230">
+        <v>64</v>
+      </c>
+      <c r="C230">
+        <v>27</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B231">
+        <v>72</v>
+      </c>
+      <c r="C231">
+        <v>57</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B232">
+        <v>61</v>
+      </c>
+      <c r="C232">
+        <v>62</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B233">
+        <v>53</v>
+      </c>
+      <c r="C233">
+        <v>37</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B234">
+        <v>29</v>
+      </c>
+      <c r="C234">
+        <v>26</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B235">
+        <v>41</v>
+      </c>
+      <c r="C235">
+        <v>31</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B236">
+        <v>39</v>
+      </c>
+      <c r="C236">
+        <v>24</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B237">
+        <v>44</v>
+      </c>
+      <c r="C237">
+        <v>26</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B238">
+        <v>59</v>
+      </c>
+      <c r="C238">
+        <v>33</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B239">
+        <v>54</v>
+      </c>
+      <c r="C239">
+        <v>27</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B240">
+        <v>88</v>
+      </c>
+      <c r="C240">
+        <v>51</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B241">
+        <v>84</v>
+      </c>
+      <c r="C241">
+        <v>49</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B242">
+        <v>82</v>
+      </c>
+      <c r="C242">
+        <v>52</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B243">
+        <v>75</v>
+      </c>
+      <c r="C243">
+        <v>44</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B244">
+        <v>78</v>
+      </c>
+      <c r="C244">
+        <v>46</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B245">
+        <v>31</v>
+      </c>
+      <c r="C245">
+        <v>24</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B246">
+        <v>56</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B247">
+        <v>80</v>
+      </c>
+      <c r="C247">
+        <v>45</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B248">
+        <v>44</v>
+      </c>
+      <c r="C248">
+        <v>30</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B249">
+        <v>33</v>
+      </c>
+      <c r="C249">
+        <v>35</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B250">
+        <v>27</v>
+      </c>
+      <c r="C250">
+        <v>29</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B251">
+        <v>41</v>
+      </c>
+      <c r="C251">
+        <v>24</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B252">
+        <v>38</v>
+      </c>
+      <c r="C252">
+        <v>40</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B253">
+        <v>100</v>
+      </c>
+      <c r="C253">
+        <v>52</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B254">
+        <v>71</v>
+      </c>
+      <c r="C254">
+        <v>62</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B255">
+        <v>40</v>
+      </c>
+      <c r="C255">
+        <v>45</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B256">
+        <v>58</v>
+      </c>
+      <c r="C256">
+        <v>35</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B257">
+        <v>86</v>
+      </c>
+      <c r="C257">
+        <v>47</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>45396</v>
+      </c>
+      <c r="B258">
+        <v>51</v>
+      </c>
+      <c r="C258">
+        <v>28</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B259">
+        <v>46</v>
+      </c>
+      <c r="C259">
+        <v>44</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B260">
+        <v>84</v>
+      </c>
+      <c r="C260">
+        <v>48</v>
+      </c>
+      <c r="D260">
+        <f t="shared" ref="D260:D265" si="4">SUM(B260:C260)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B261">
+        <v>63</v>
+      </c>
+      <c r="C261">
+        <v>52</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B262">
+        <v>50</v>
+      </c>
+      <c r="C262">
+        <v>38</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B263">
+        <v>65</v>
+      </c>
+      <c r="C263">
+        <v>48</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B264">
+        <v>84</v>
+      </c>
+      <c r="C264">
+        <v>57</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B265">
+        <v>58</v>
+      </c>
+      <c r="C265">
+        <v>50</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Usuarios.xlsx
+++ b/Arquivos/Usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C676BEFC-3E5F-42B8-9452-31E203BC598F}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65DF011-4063-4FF0-A7FD-140AD27E7DCD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259:D265"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301:D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4806,7 +4806,7 @@
         <v>48</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D260:D265" si="4">SUM(B260:C260)</f>
+        <f t="shared" ref="D260:D307" si="4">SUM(B260:C260)</f>
         <v>132</v>
       </c>
     </row>
@@ -4883,6 +4883,636 @@
       <c r="D265">
         <f t="shared" si="4"/>
         <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B266">
+        <v>62</v>
+      </c>
+      <c r="C266">
+        <v>60</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B267">
+        <v>53</v>
+      </c>
+      <c r="C267">
+        <v>41</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B268">
+        <v>62</v>
+      </c>
+      <c r="C268">
+        <v>46</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B269">
+        <v>133</v>
+      </c>
+      <c r="C269">
+        <v>55</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B270">
+        <v>63</v>
+      </c>
+      <c r="C270">
+        <v>51</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B271">
+        <v>53</v>
+      </c>
+      <c r="C271">
+        <v>49</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B272">
+        <v>106</v>
+      </c>
+      <c r="C272">
+        <v>50</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B273">
+        <v>60</v>
+      </c>
+      <c r="C273">
+        <v>43</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B274">
+        <v>60</v>
+      </c>
+      <c r="C274">
+        <v>49</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B275">
+        <v>117</v>
+      </c>
+      <c r="C275">
+        <v>55</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B276">
+        <v>50</v>
+      </c>
+      <c r="C276">
+        <v>61</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B277">
+        <v>48</v>
+      </c>
+      <c r="C277">
+        <v>56</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B278">
+        <v>103</v>
+      </c>
+      <c r="C278">
+        <v>70</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>45417</v>
+      </c>
+      <c r="B279">
+        <v>44</v>
+      </c>
+      <c r="C279">
+        <v>36</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B280">
+        <v>49</v>
+      </c>
+      <c r="C280">
+        <v>38</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B281">
+        <v>40</v>
+      </c>
+      <c r="C281">
+        <v>36</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B282">
+        <v>44</v>
+      </c>
+      <c r="C282">
+        <v>41</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B283">
+        <v>90</v>
+      </c>
+      <c r="C283">
+        <v>46</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B284">
+        <v>49</v>
+      </c>
+      <c r="C284">
+        <v>61</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B285">
+        <v>45</v>
+      </c>
+      <c r="C285">
+        <v>38</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>45424</v>
+      </c>
+      <c r="B286">
+        <v>63</v>
+      </c>
+      <c r="C286">
+        <v>34</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B287">
+        <v>68</v>
+      </c>
+      <c r="C287">
+        <v>55</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B288">
+        <v>59</v>
+      </c>
+      <c r="C288">
+        <v>46</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B289">
+        <v>50</v>
+      </c>
+      <c r="C289">
+        <v>46</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B290">
+        <v>96</v>
+      </c>
+      <c r="C290">
+        <v>67</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B291">
+        <v>55</v>
+      </c>
+      <c r="C291">
+        <v>50</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B292">
+        <v>51</v>
+      </c>
+      <c r="C292">
+        <v>38</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B293">
+        <v>43</v>
+      </c>
+      <c r="C293">
+        <v>32</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B294">
+        <v>64</v>
+      </c>
+      <c r="C294">
+        <v>28</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B295">
+        <v>56</v>
+      </c>
+      <c r="C295">
+        <v>51</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B296">
+        <v>75</v>
+      </c>
+      <c r="C296">
+        <v>65</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>45435</v>
+      </c>
+      <c r="B297">
+        <v>72</v>
+      </c>
+      <c r="C297">
+        <v>56</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B298">
+        <v>64</v>
+      </c>
+      <c r="C298">
+        <v>41</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>45437</v>
+      </c>
+      <c r="B299">
+        <v>33</v>
+      </c>
+      <c r="C299">
+        <v>41</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>45438</v>
+      </c>
+      <c r="B300">
+        <v>56</v>
+      </c>
+      <c r="C300">
+        <v>37</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B301">
+        <v>61</v>
+      </c>
+      <c r="C301">
+        <v>53</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B302">
+        <v>51</v>
+      </c>
+      <c r="C302">
+        <v>48</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B303">
+        <v>78</v>
+      </c>
+      <c r="C303">
+        <v>48</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B304">
+        <v>62</v>
+      </c>
+      <c r="C304">
+        <v>50</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B305">
+        <v>46</v>
+      </c>
+      <c r="C305">
+        <v>63</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B306">
+        <v>64</v>
+      </c>
+      <c r="C306">
+        <v>49</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>45445</v>
+      </c>
+      <c r="B307">
+        <v>62</v>
+      </c>
+      <c r="C307">
+        <v>40</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Usuarios.xlsx
+++ b/Arquivos/Usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65DF011-4063-4FF0-A7FD-140AD27E7DCD}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{3CD5C0FB-D2FD-4F61-A0BB-37A75030EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD44870A-8182-4B97-AEFE-5DAED2082FC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301:D307"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4806,7 +4806,7 @@
         <v>48</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D260:D307" si="4">SUM(B260:C260)</f>
+        <f t="shared" ref="D260:D323" si="4">SUM(B260:C260)</f>
         <v>132</v>
       </c>
     </row>
@@ -5513,6 +5513,951 @@
       <c r="D307">
         <f t="shared" si="4"/>
         <v>102</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>45446</v>
+      </c>
+      <c r="B308">
+        <v>58</v>
+      </c>
+      <c r="C308">
+        <v>44</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>45447</v>
+      </c>
+      <c r="B309">
+        <v>56</v>
+      </c>
+      <c r="C309">
+        <v>44</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B310">
+        <v>43</v>
+      </c>
+      <c r="C310">
+        <v>45</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B311">
+        <v>43</v>
+      </c>
+      <c r="C311">
+        <v>46</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B312">
+        <v>46</v>
+      </c>
+      <c r="C312">
+        <v>41</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>45451</v>
+      </c>
+      <c r="B313">
+        <v>54</v>
+      </c>
+      <c r="C313">
+        <v>46</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>45452</v>
+      </c>
+      <c r="B314">
+        <v>42</v>
+      </c>
+      <c r="C314">
+        <v>39</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B315">
+        <v>44</v>
+      </c>
+      <c r="C315">
+        <v>43</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B316">
+        <v>100</v>
+      </c>
+      <c r="C316">
+        <v>59</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B317">
+        <v>51</v>
+      </c>
+      <c r="C317">
+        <v>40</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>45456</v>
+      </c>
+      <c r="B318">
+        <v>46</v>
+      </c>
+      <c r="C318">
+        <v>38</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B319">
+        <v>37</v>
+      </c>
+      <c r="C319">
+        <v>45</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>45458</v>
+      </c>
+      <c r="B320">
+        <v>77</v>
+      </c>
+      <c r="C320">
+        <v>45</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>45459</v>
+      </c>
+      <c r="B321">
+        <v>35</v>
+      </c>
+      <c r="C321">
+        <v>27</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B322">
+        <v>36</v>
+      </c>
+      <c r="C322">
+        <v>38</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>45461</v>
+      </c>
+      <c r="B323">
+        <v>38</v>
+      </c>
+      <c r="C323">
+        <v>41</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B324">
+        <v>47</v>
+      </c>
+      <c r="C324">
+        <v>51</v>
+      </c>
+      <c r="D324">
+        <f t="shared" ref="D324:D370" si="5">SUM(B324:C324)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B325">
+        <v>70</v>
+      </c>
+      <c r="C325">
+        <v>29</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B326">
+        <v>47</v>
+      </c>
+      <c r="C326">
+        <v>38</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>45465</v>
+      </c>
+      <c r="B327">
+        <v>33</v>
+      </c>
+      <c r="C327">
+        <v>36</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>45466</v>
+      </c>
+      <c r="B328">
+        <v>55</v>
+      </c>
+      <c r="C328">
+        <v>34</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B329">
+        <v>137</v>
+      </c>
+      <c r="C329">
+        <v>57</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B330">
+        <v>58</v>
+      </c>
+      <c r="C330">
+        <v>48</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>45469</v>
+      </c>
+      <c r="B331">
+        <v>47</v>
+      </c>
+      <c r="C331">
+        <v>36</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B332">
+        <v>77</v>
+      </c>
+      <c r="C332">
+        <v>56</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B333">
+        <v>39</v>
+      </c>
+      <c r="C333">
+        <v>34</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B334">
+        <v>48</v>
+      </c>
+      <c r="C334">
+        <v>34</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B335">
+        <v>54</v>
+      </c>
+      <c r="C335">
+        <v>43</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B336">
+        <v>44</v>
+      </c>
+      <c r="C336">
+        <v>41</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B337">
+        <v>46</v>
+      </c>
+      <c r="C337">
+        <v>33</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>45476</v>
+      </c>
+      <c r="B338">
+        <v>46</v>
+      </c>
+      <c r="C338">
+        <v>33</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>45477</v>
+      </c>
+      <c r="B339">
+        <v>74</v>
+      </c>
+      <c r="C339">
+        <v>46</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B340">
+        <v>30</v>
+      </c>
+      <c r="C340">
+        <v>37</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>45479</v>
+      </c>
+      <c r="B341">
+        <v>35</v>
+      </c>
+      <c r="C341">
+        <v>38</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>45480</v>
+      </c>
+      <c r="B342">
+        <v>44</v>
+      </c>
+      <c r="C342">
+        <v>24</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>45481</v>
+      </c>
+      <c r="B343">
+        <v>45</v>
+      </c>
+      <c r="C343">
+        <v>34</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>45482</v>
+      </c>
+      <c r="B344">
+        <v>46</v>
+      </c>
+      <c r="C344">
+        <v>38</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B345">
+        <v>27</v>
+      </c>
+      <c r="C345">
+        <v>35</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B346">
+        <v>50</v>
+      </c>
+      <c r="C346">
+        <v>48</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B347">
+        <v>41</v>
+      </c>
+      <c r="C347">
+        <v>33</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>45486</v>
+      </c>
+      <c r="B348">
+        <v>238</v>
+      </c>
+      <c r="C348">
+        <v>20</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>45487</v>
+      </c>
+      <c r="B349">
+        <v>59</v>
+      </c>
+      <c r="C349">
+        <v>21</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B350">
+        <v>116</v>
+      </c>
+      <c r="C350">
+        <v>25</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B351">
+        <v>126</v>
+      </c>
+      <c r="C351">
+        <v>19</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B352">
+        <v>44</v>
+      </c>
+      <c r="C352">
+        <v>31</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B353">
+        <v>62</v>
+      </c>
+      <c r="C353">
+        <v>51</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B354">
+        <v>38</v>
+      </c>
+      <c r="C354">
+        <v>33</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>45493</v>
+      </c>
+      <c r="B355">
+        <v>65</v>
+      </c>
+      <c r="C355">
+        <v>28</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>45494</v>
+      </c>
+      <c r="B356">
+        <v>133</v>
+      </c>
+      <c r="C356">
+        <v>45</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B357">
+        <v>48</v>
+      </c>
+      <c r="C357">
+        <v>56</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B358">
+        <v>48</v>
+      </c>
+      <c r="C358">
+        <v>48</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B359">
+        <v>76</v>
+      </c>
+      <c r="C359">
+        <v>60</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B360">
+        <v>82</v>
+      </c>
+      <c r="C360">
+        <v>70</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B361">
+        <v>46</v>
+      </c>
+      <c r="C361">
+        <v>32</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>45500</v>
+      </c>
+      <c r="B362">
+        <v>44</v>
+      </c>
+      <c r="C362">
+        <v>39</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>45501</v>
+      </c>
+      <c r="B363">
+        <v>60</v>
+      </c>
+      <c r="C363">
+        <v>53</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B364">
+        <v>37</v>
+      </c>
+      <c r="C364">
+        <v>51</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B365">
+        <v>36</v>
+      </c>
+      <c r="C365">
+        <v>39</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B366">
+        <v>49</v>
+      </c>
+      <c r="C366">
+        <v>44</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B367">
+        <v>93</v>
+      </c>
+      <c r="C367">
+        <v>58</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B368">
+        <v>40</v>
+      </c>
+      <c r="C368">
+        <v>39</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>45507</v>
+      </c>
+      <c r="B369">
+        <v>37</v>
+      </c>
+      <c r="C369">
+        <v>36</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>45508</v>
+      </c>
+      <c r="B370">
+        <v>56</v>
+      </c>
+      <c r="C370">
+        <v>41</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
